--- a/trunk/Planilla de Trabajo HH.xlsx
+++ b/trunk/Planilla de Trabajo HH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -54,13 +54,43 @@
   </si>
   <si>
     <t xml:space="preserve">Codificación - Programación SQL </t>
+  </si>
+  <si>
+    <t>Pruebas - Documentación</t>
+  </si>
+  <si>
+    <t>Plan de pruebas</t>
+  </si>
+  <si>
+    <t>Re planificación</t>
+  </si>
+  <si>
+    <t>Documento "Valor Agregado"</t>
+  </si>
+  <si>
+    <t>Documentando</t>
+  </si>
+  <si>
+    <t>Modificando Base de Datos</t>
+  </si>
+  <si>
+    <t>Elaboración de Documentos y Memoria</t>
+  </si>
+  <si>
+    <t>Modificación de Base de datos en desarrollo y codificación</t>
+  </si>
+  <si>
+    <t>Casos de uso/memoria</t>
+  </si>
+  <si>
+    <t>Programacion Php/Base de Datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +237,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +259,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,27 +568,27 @@
     <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -569,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>41507</v>
       </c>
@@ -595,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>41507</v>
       </c>
@@ -621,9 +666,163 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>41508</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>41508</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>41512</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41509</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>41513</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>41512</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>41513</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>41513</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>41513</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6">
+        <v>41513</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>41514</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F10" s="6">
+        <v>41513</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="6">
+        <v>41514</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.70000000000000007</v>
       </c>
     </row>
   </sheetData>
